--- a/data_import/under_review.xlsx
+++ b/data_import/under_review.xlsx
@@ -518,22 +518,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P-21/003-S00</t>
+          <t>P-22/074-S00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27-01-2021</t>
+          <t>22-12-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24-09-2021</t>
+          <t>10-07-2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1023010910</t>
+          <t>104001091</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,27 +548,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>V-1023010910-0247</t>
+          <t>V-1040010910-0010</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21-003-DOS-0002</t>
+          <t>22-074-PRC-0016</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FINAL QUALITY DOSSIER</t>
+          <t>PAINTING PROCEDURE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -578,18 +578,18 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22-04-2024</t>
+          <t>05-07-2024</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>22-04-2024 Enviado Rev. 1</t>
+          <t>29-01-2024 Enviado Rev. 0 // 07-02-2024 Rechazado Rev. 1 // 12-04-2024 Enviado Rev. 1 // 17-04-2024 Com. Mayores Rev. 1 // 05-07-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24-05-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20-12-2023 Enviado Rev. 0 // 19-01-2024 Com. Mayores Rev. 0 // 31-01-2024 Enviado Rev. 1 // 22-02-2024 Com. Menores Rev. 2 // 01-03-2024 Enviado Rev. 2 // 24-05-2024 Aprobado Rev. 2 // 24-05-2024 Com. Menores Rev. 2 // 24-05-2024 Enviado Rev. 3</t>
+          <t>20-12-2023 Enviado Rev. 0 // 19-01-2024 Com. Mayores Rev. 0 // 31-01-2024 Enviado Rev. 1 // 22-02-2024 Com. Menores Rev. 2 // 01-03-2024 Enviado Rev. 2 // 24-05-2024 Aprobado Rev. 2 // 24-05-2024 Com. Menores Rev. 2 // 24-05-2024 Enviado Rev. 3 // 08-07-2024 Com. Menores Rev. 3 // 08-07-2024 Enviado Rev. 4</t>
         </is>
       </c>
     </row>
@@ -709,27 +709,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>V-1040010910-0007</t>
+          <t>V-1040010910-0002</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22-074-PRC-0010</t>
+          <t>22-074-PLG-0005</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HYDROSTATIC TEST PROCEDURE</t>
+          <t>OVERALL DRAWING WITH WEIGHT FOR FE &amp; FO (ARZANAH)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Procedimientos</t>
+          <t>Planos</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -744,13 +744,13 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>29-05-2024</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>08-01-2024 Enviado Rev. 0 // 07-02-2024 Com. Mayores Rev. 1 // 12-02-2024 Enviado Rev. 1 // 30-04-2024 Aprobado Rev. 1 // 30-04-2024 Com. Menores Rev. 1 // 07-05-2024 Enviado Rev. 2</t>
+          <t>05-01-2024 Enviado Rev. 0 // 22-02-2024 Com. Mayores Rev. 1 // 22-03-2024 Enviado Rev. 1 // 22-05-2024 Com. Menores Rev. 1 // 29-05-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
@@ -785,29 +785,25 @@
           <t>Temperatura</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>V-1040010640-0009</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23-001-DOS-0001</t>
+          <t>23-001-DOS-0002</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>WELDING DOSSIER 23-001</t>
+          <t>FINAL QUALITY DOSSIER 23-001</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Soldadura</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -817,40 +813,40 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>21-05-2024</t>
+          <t>18-06-2024</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>09-10-2023 Enviado Rev. 1 // 11-12-2023 Com. Mayores Rev. 1 // 22-01-2024 Enviado Rev. 2 // 29-02-2024 Com. Menores Rev. 2 // 21-05-2024 Enviado Rev. 3</t>
+          <t>18-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P-23/017-S00</t>
+          <t>P-23/001-S00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>06-02-2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29-12-2023</t>
+          <t>04-10-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1038010710</t>
+          <t>104001064</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -860,27 +856,23 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nivel</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23-017-CER-0002</t>
+          <t>23-001-S00-LIS-0016</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">CERTIFICATES AND DECLARATIONS OF CONFORMITY	</t>
+          <t>SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP 23-001</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -900,35 +892,35 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>20-05-2024 Enviado Rev. 0</t>
+          <t>04-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P-23/017-S00</t>
+          <t>P-23/026-S00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29-12-2023</t>
+          <t>07-12-2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1038010710</t>
+          <t>1038010610</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -938,22 +930,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Temperatura</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>XX</t>
+          <t>V-1038010610-0016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23-017-CER-0004</t>
+          <t>23-026-CER-0002</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TEST AND CERTIFICATION OF MATERIALS	</t>
+          <t>CERTIFICATES AND DECLARATIONS OF CONFORMITY</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -973,40 +965,40 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>20-05-2024 Enviado Rev. 0</t>
+          <t>09-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P-23/026-S02</t>
+          <t>P-23/026-S00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25-04-2024</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25-08-2024</t>
+          <t>07-12-2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>103801061-04</t>
+          <t>1038010610</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1021,27 +1013,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>V-1038010610</t>
+          <t>V-1038010610-0017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23-026-S02-ESP-0003</t>
+          <t>23-026-CER-0006</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SPECIFICATIONS AND TECHNICAL DATA S02</t>
+          <t>CALIBRATION CERTIFICATES FOR SUPPLIED INSTRUMENTS</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Planos</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1051,18 +1043,18 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>23-05-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>23-05-2024 Enviado Rev. 0</t>
+          <t>09-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1091,18 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00017</t>
+          <t>3998_18-1037010640-00022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-129C</t>
+          <t>23-027-ESP-0003-60</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LPB31</t>
+          <t xml:space="preserve">NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE
+</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1129,22 +1122,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>25-04-2024</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
+          <t>Error en egesdoc con nombre y TR number. Este documento es el VDDL</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>26-06-2023 Comentado Rev. 1 // 06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
+          <t>16-10-2023 Enviado Rev. 0 // 24-01-2024 Com. Menores Rev. 1 // 25-01-2024 Enviado. Rev. 1 // 25-01-2024 Enviado Rev. 1 // 26-02-2024 Aprobado Rev. 1 // 25-04-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
@@ -1181,27 +1174,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00016</t>
+          <t>3998_18-1037010640-00012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-315</t>
+          <t>23-027-PRC-0009</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - CO2 INJECTION</t>
+          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - TEMPERATURE ELEMENTS WITH WELL</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Instrucciones</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1211,7 +1204,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1219,14 +1212,10 @@
           <t>08-05-2024</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
+          <t>13-07-2023 Comentado Rev. 0 // 21-07-2023 Enviado Rev. 0 // 22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 08-05-2024 Com. Menores Rev. 3 // 08-05-2024 Enviado Rev. 4</t>
         </is>
       </c>
     </row>
@@ -1263,27 +1252,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00012</t>
+          <t>3998_18-1037010640-00028</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23-027-PRC-0009</t>
+          <t>23-0027-ESP-0003-60</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - TEMPERATURE ELEMENTS WITH WELL</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Instrucciones</t>
+          <t>Catálogo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1293,18 +1282,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>09-05-2024</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Línea duplicada, El Vendor Doc. es 23-0027-ESP-0003-60, y es la misma Doc. que la del Vendor Doc. 23-027-ESP-0003-60, Se pide que se elimine via EMAIL / ESTE DOC HAY QUE ELIMINARLO INF DUPLICADA - 16-2-24 SE ENVIA DOCUMENTO PARA SU ELIMINACION A EGESDOC - Vuelve a rechazar, se vuelve a enviar para su eliminacion; 24-04-24 Nos indican que aqui van los cálculos que se estaban subiendo al -00022 y en el -00022 es el VDDL del B99</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>13-07-2023 Comentado Rev. 0 // 21-07-2023 Enviado Rev. 0 // 22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 08-05-2024 Com. Menores Rev. 3 // 08-05-2024 Enviado Rev. 4</t>
+          <t>09-02-2024 Com. Menores Rev. 0 // 16-02-2024 Enviado Rev. 0 // 16-02-2024 Rechazado Rev. 0 // 21-02-2024 Eliminado Rev. 0 // 09-05-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1334,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00028</t>
+          <t>3998_18-1037010640-00017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23-0027-ESP-0003-60</t>
+          <t>23-027-ESP-0003-129C</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LPB31</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Catálogo</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1371,22 +1364,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>09-05-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Línea duplicada, El Vendor Doc. es 23-0027-ESP-0003-60, y es la misma Doc. que la del Vendor Doc. 23-027-ESP-0003-60, Se pide que se elimine via EMAIL / ESTE DOC HAY QUE ELIMINARLO INF DUPLICADA - 16-2-24 SE ENVIA DOCUMENTO PARA SU ELIMINACION A EGESDOC - Vuelve a rechazar, se vuelve a enviar para su eliminacion; 24-04-24 Nos indican que aqui van los cálculos que se estaban subiendo al -00022 y en el -00022 es el VDDL del B99</t>
+          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>09-02-2024 Com. Menores Rev. 0 // 16-02-2024 Enviado Rev. 0 // 16-02-2024 Rechazado Rev. 0 // 21-02-2024 Eliminado Rev. 0 // 09-05-2024 Enviado Rev. 0</t>
+          <t>26-06-2023 Comentado Rev. 1 // 06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
         </is>
       </c>
     </row>
@@ -1423,18 +1416,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00022</t>
+          <t>3998_18-1037010640-00016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-60</t>
+          <t>23-027-ESP-0003-315</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE
-</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - CO2 INJECTION</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1454,22 +1446,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>25-04-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Error en egesdoc con nombre y TR number. Este documento es el VDDL</t>
+          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>16-10-2023 Enviado Rev. 0 // 24-01-2024 Com. Menores Rev. 1 // 25-01-2024 Enviado. Rev. 1 // 25-01-2024 Enviado Rev. 1 // 26-02-2024 Aprobado Rev. 1 // 25-04-2024 Enviado Rev. 0</t>
+          <t>06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
         </is>
       </c>
     </row>
@@ -1558,22 +1550,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P-23/028-S00</t>
+          <t>P-23/027-S04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28-02-2023</t>
+          <t>21-05-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26-10-2023</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>103701061</t>
+          <t>1037010640-04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1588,27 +1580,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3998_18-1037010610-00014</t>
+          <t>3998_18-1037010640-00035</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23-028-PRC-0012</t>
+          <t>23-027-S04-ESP-0003-B18</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PACKING &amp; TRANSPORTATION PROCEDURE</t>
+          <t>NFXP3 – SPECIFICATIONS AND TECHNICAL DATA FOR TEMPERATURE ELEMENTS WITH WELL - B18</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1623,13 +1615,13 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>01-07-2024</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>11-12-2023 Com. Menores Rev. 0 // 15-02-2024 Enviado Rev. 0</t>
+          <t>01-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1658,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3998_18-1037010610-00013</t>
+          <t>3998_18-1037010610-00002</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23-028-PRC-0009</t>
+          <t>23-028-CER-0006</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - THERMOMETERS WITH WELL</t>
+          <t>CALIBRATION CERTIFICATES FOR SUPPLIED INSTRUMENTS</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Instrucciones</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1696,280 +1688,284 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>En eGesdoc el doc. Eipsa es: 23-028-DOS-0001</t>
-        </is>
-      </c>
+          <t>10-06-2024</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 06-05-2024 Com. Menores Rev. 3 // 06-05-2024 Enviado Rev. 4</t>
+          <t>10-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>P-23/028-S00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28-02-2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>26-10-2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>103701061</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3998_18-1037010610-00014</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>23-028-PRC-0012</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PACKING &amp; TRANSPORTATION PROCEDURE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Packing</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>11-06-2024</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>11-12-2023 Com. Menores Rev. 0 // 15-02-2024 Enviado Rev. 0 // 11-06-2024 Com. Menores Rev. 0 // 11-06-2024 Enviado Rev. 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P-23/028-S00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28-02-2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>26-10-2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>103701061</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3998_18-1037010610-00005</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23-028-LIS-0017</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Repuestos</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lo rechazan y confunde título con otro documento ; rechazan el doc. y piden que se suba en nativo; Rechazan de nuevo el doc. nativo, ahora piden que se suba en .zip el pdf y nativo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>17-05-2024 Enviado Rev. 0 // 28-06-2024 Rechazado Rev. 0 // 09-07-2024 Enviado Rev. 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>P-23/028-S01</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>26-10-2023</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>25-12-2023</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1037010640</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Temperatura</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>3998_18-1037010610-00017</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>23-028-S01-ESP-0003</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CALCULATIONS AND OVERALL DRAWING DIMENSIONALS</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Cálculo y plano</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>09-05-2024</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendiente aun bajo revisón, ya se han enviado 3 emails de reclamación para este documento ; Fue enviado como W - ISSUED FOR CERTIFICATION aún "under review" ; 22-02-24 Se envia otro email de reclamación; En eGesdoc se encuentra S - TO CLIENT WITH COMMENTS - AP; Documento revisado para actualizar el rango de temperatura de los bimetálicos:
 171TG-6662 y 171TG-6671
 </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>13-12-2023 Enviado Rev. 0 // 22-02-2024 Aprobadoç Rev. 0 // 22-02-2024 Aprobado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 19-03-2024 Enviado Rev. 1 // 06-05-2024 Aprobado Rev. 1 // 09-05-2024 Enviado Rev. 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P-23/030-S00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>02-03-2023</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>28-10-2023</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>702151091 / 702251091 / 702301091 / 702401091</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>23-030-DOS-0002</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>FINAL QUALITY DOSSIER</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Dossier</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>27-05-2024</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>27-05-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P-23/034-S05</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>21-05-2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>03-06-2024</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>103801064-05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>23-034-S05-PLG-0005</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>OVERALL DRAWING WITH PRINCIPAL DIMENSIONS AND WEIGHTS</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Planos</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>27-05-2024</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>27-05-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P-23/037-S00</t>
+          <t>P-23/036-S00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>28-03-2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06-12-2023</t>
+          <t>23-11-2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>103701071</t>
+          <t>RFQ 12-99-52-1807 _REV.A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1979,32 +1975,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3998_18-1037010710-00008</t>
+          <t>8005710911-V-0002</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23-037-LIS-0022</t>
+          <t>23-036-PLN-0001</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NFXP3 - CUSTOMS CLASSIFICATION - LEVEL GAUGES</t>
+          <t>QUALITY CONTROL PLAN</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>PPI</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2014,18 +2010,22 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Este pedido esta terminado. Mientras no reclamen no vamos ha enviar nada. Vuelve a enviar transmittal 'Accepted with minor comments'</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>13-02-2024 Enviado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 01-04-2024 Enviado Rev. 1 // 06-05-2024 Com. Menores Rev. 1 // 14-05-2024 Enviado Rev. 2</t>
+          <t>26-07-2023 Aprobado Rev. 2 // 25-06-2024 Enviado Rev. 3</t>
         </is>
       </c>
     </row>
@@ -2062,22 +2062,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3998_18-1037010710-00016</t>
+          <t>3998_18-1037010710-00002</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23-037-PRC-0012</t>
+          <t>23-037-CER-0002</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NFXP3 - PACKING &amp; TRANSPORTATION PROCEDURE - LEVEL GAUGES</t>
+          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2092,40 +2092,40 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>20-09-2023 Comentado Rev. 0 // 25-09-2023 Enviado Rev. 1 // 11-12-2023 Rechazado Rev. 1 // 06-02-2024 Enviado Rev. 3 // 19-03-2024 Com. Menores Rev. 3 // 01-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
+          <t>20-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P-23/042-S00</t>
+          <t>P-23/037-S00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25-04-2023</t>
+          <t>10-04-2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19-06-2023</t>
+          <t>06-12-2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7021510411</t>
+          <t>103701071</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2135,28 +2135,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Nivel</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3998_18-1037010710-00016</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23-042-PRG-0003</t>
+          <t>23-037-PRC-0012</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>OVERALL MANUFACTURING PROGRAM</t>
+          <t>NFXP3 - PACKING &amp; TRANSPORTATION PROCEDURE - LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Programa</t>
+          <t>Packing</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2166,40 +2170,40 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>30-04-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>30-04-2024 Enviado Rev. 0</t>
+          <t>20-09-2023 Comentado Rev. 0 // 25-09-2023 Enviado Rev. 1 // 11-12-2023 Rechazado Rev. 1 // 06-02-2024 Enviado Rev. 3 // 19-03-2024 Com. Menores Rev. 3 // 01-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5 // 07-06-2024 Com. Menores Rev. 5 // 07-06-2024 Enviado Rev. 6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P-23/044-S00</t>
+          <t>P-23/037-S00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>10-04-2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22-12-2023</t>
+          <t>06-12-2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>103701091</t>
+          <t>103701071</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2209,32 +2213,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Caudal</t>
+          <t>Nivel</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00013</t>
+          <t>3998_18-1037010710-00008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23-044-MAN-0001</t>
+          <t>23-037-LIS-0022</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NFXP3 - INSTALLATION, OPERATION AND MAINTENANCE MANUAL - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+          <t>NFXP3 - CUSTOMS CLASSIFICATION - LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2244,40 +2248,40 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>13-07-2023 ComentadoEliminado Rev. 0 // 13-07-2023 ComentadoEliminadoeli Rev. 0 // 13-07-2023 Eliminado Rev. 0 // 13-07-2023 Rechazado Rev. 0 // 13-07-2023 Com. Mayores Rev. 0 // 16-05-2024 Enviado Rev. 1</t>
+          <t>13-02-2024 Enviado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 01-04-2024 Enviado Rev. 1 // 06-05-2024 Com. Menores Rev. 1 // 14-05-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P-23/044-S03</t>
+          <t>P-23/044-S00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>26-04-2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
+          <t>22-12-2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1037010910</t>
+          <t>103701091</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2292,27 +2296,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00033</t>
+          <t>3998_18-1037010910-00013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23-044-S03-PLG-0005-171</t>
+          <t>23-044-MAN-0001</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - SUPP 02</t>
+          <t>NFXP3 - INSTALLATION, OPERATION AND MAINTENANCE MANUAL - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Catálogo</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2322,44 +2326,40 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Nos lo entregan vía email 07/03/24 para que adelantemos los comentarios, no es oficial, nos lo tienen que devolver por egesdoc; Problema con archivo en egesdoc, email nos indican que es problema de la web. se resube</t>
-        </is>
-      </c>
+          <t>20-06-2024</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>30-01-2024 Enviado Rev. 0 // 07-03-2024 Com. Menores Rev. 0 // 10-04-2024 Aprobado Rev. 1 // 16-04-2024 Enviado Rev. 2 // 13-05-2024 Rechazado Rev. 2 // 14-05-2024 Enviado Rev. 3</t>
+          <t>13-07-2023 ComentadoEliminado Rev. 0 // 13-07-2023 ComentadoEliminadoeli Rev. 0 // 13-07-2023 Eliminado Rev. 0 // 13-07-2023 Rechazado Rev. 0 // 13-07-2023 Com. Mayores Rev. 0 // 16-05-2024 Enviado Rev. 1 // 20-06-2024 Com. Menores Rev. 1 // 20-06-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-23/044-S00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>26-04-2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>22-12-2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>103701091</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2374,27 +2374,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00048</t>
+          <t>3998_18-1037010910-00002</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-171-2</t>
+          <t>23-044-CER-0002</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE - RLTO CLPG - S04</t>
+          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2404,40 +2404,40 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>28-05-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 28-05-2024 Com. Menores Rev. 0 // 28-05-2024 Enviado Rev. 1</t>
+          <t>08-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-23/044-S00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>26-04-2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>22-12-2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>103701091</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2452,22 +2452,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00050</t>
+          <t>3998_18-1037010910-00003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-171</t>
+          <t>23-044-DOS-0001</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - S04</t>
+          <t>NFXP3 - WELDING PROCEDURE - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Soldadura</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2482,40 +2482,40 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>17-06-2024</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
+          <t>13-11-2023 Enviado Rev. 1 // 18-12-2023 Com. Mayores Rev. 1 // 30-01-2024 Enviado Rev. 2 // 05-03-2024 Com. Menores Rev. 2 // 17-06-2024 Enviado Rev. 3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-23/044-S03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>12-12-2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>1037010910</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2530,27 +2530,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00049</t>
+          <t>3998_18-1037010910-00033</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-175</t>
+          <t>23-044-S03-PLG-0005-171</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO MEG - S04</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - SUPP 02</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Catálogo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2560,40 +2560,44 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>14-05-2024</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Nos lo entregan vía email 07/03/24 para que adelantemos los comentarios, no es oficial, nos lo tienen que devolver por egesdoc; Problema con archivo en egesdoc, email nos indican que es problema de la web. se resube</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
+          <t>30-01-2024 Enviado Rev. 0 // 07-03-2024 Com. Menores Rev. 0 // 10-04-2024 Aprobado Rev. 1 // 16-04-2024 Enviado Rev. 2 // 13-05-2024 Rechazado Rev. 2 // 14-05-2024 Enviado Rev. 3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P-23/048-S00</t>
+          <t>P-23/044-S04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12-05-2023</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>104301071</t>
+          <t>1037010910-04</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2603,32 +2607,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5022_20-1043010710-00006</t>
+          <t>3998_18-1037010910-00049</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23-048-LIS-0016</t>
+          <t>23-044-S04-PLG-0005-175</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>NFXP4 - LIST OF RECOMMENDED SPARE PARTS FOR LEVEL GAUGES</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO MEG - S04</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2638,40 +2642,40 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>20-11-2023 Enviado Rev. 0 // 18-01-2024 Com. Mayores Rev. 1 // 26-01-2024 Enviado Rev. 1 // 02-02-2024 Com. Menores Rev. 2 // 27-02-2024 Enviado Rev. 3 // 06-03-2024 Com. Menores Rev. 3 // 06-03-2024 Enviado Rev. 4 // 08-05-2024 Com. Mayores Rev. 4 // 16-05-2024 Enviado Rev. 5</t>
+          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P-23/074-S00</t>
+          <t>P-23/044-S04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06-09-2023</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22-11-2023</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>104301091</t>
+          <t>1037010910-04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2686,22 +2690,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5022_20-1043010910-00003</t>
+          <t>3998_18-1037010910-00050</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23-074-DOS-0001</t>
+          <t>23-044-S04-PLG-0005-171</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>NFXP4 - WELDING DOSSIER FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - S04</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Soldadura</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2721,35 +2725,35 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>27-02-2024 Eliminado Rev.  // 09-04-2024 Enviado Rev. 0 // 23-04-2024 Com. Mayores Rev. 0 // 14-05-2024 Enviado Rev. 1</t>
+          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P-23/074-S01</t>
+          <t>P-23/044-S04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12-06-2024</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1043010910-01</t>
+          <t>1037010910-04</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2764,22 +2768,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5022_20-1043010910-00015</t>
+          <t>3998_18-1037010910-00048</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23-074-ESP-0003-S1-O</t>
+          <t>23-044-S04-PLG-0005-171-2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NFXP4 - SPECIFICATIONS AND TECHNICAL DATA FOR RESTRICITION ORIFICE</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE - RLTO CLPG - S04</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cálculos</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2794,44 +2798,40 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>23-05-2024</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Se ha modificado la longitud de los equipos 12-RO-94031A/B/C, para cumplir los requisitos de soldadura (Plano 23/074-S01-08)</t>
-        </is>
-      </c>
+          <t>28-05-2024</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>15-03-2024 Enviado Rev. 0 // 05-04-2024 Com. Mayores Rev. 0 // 09-04-2024 Enviado Rev. 1 // 16-04-2024 Com. Menores Rev. 1 // 16-04-2024 Enviado Rev. 2 // 08-05-2024 Aprobado Rev. 2 // 23-05-2024 Enviado Rev. 3</t>
+          <t>29-04-2024 Enviado Rev. 0 // 28-05-2024 Com. Menores Rev. 0 // 28-05-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P-23/074-S02</t>
+          <t>P-23/044-S04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24-04-2024</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12-06-2024</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>104301091-02</t>
+          <t>1037010910-04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5022_20-1043010910-00016</t>
+          <t>3998_18-1037010910-00047</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23-074-ESP-0003-S2-F</t>
+          <t>23-044-S04-PLG-0005-129C-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>NFXP4 - SPECIFICATIONS AND TECHNICAL DATA FOR ORIFICE PLATES (SUPPLEMENT 02)</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE - RLTO LPB 31 - S04</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2881,70 +2881,70 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>24-05-2024</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>13-05-2024 Enviado Rev. 0 // 16-05-2024 Com. Menores Rev. 0 // 16-05-2024 Enviado Rev. 1</t>
+          <t>29-04-2024 Enviado Rev. 0 // 23-05-2024 Com. Menores Rev. 0 // 24-05-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P-23/097-S00</t>
+          <t>P-23/044-S05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16-11-2023</t>
+          <t>31-05-2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22-12-2023</t>
+          <t>22-07-2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>600017293</t>
+          <t>1037010910-05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CEPSA</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>V-D16861-2206-400-DOS-001</t>
+          <t>3998_18-1037010910-00051</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23-097-DOS-01</t>
+          <t>23-044-S05-PLG-0005-B18</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>DOSSIER FINAL</t>
+          <t>NFXP3 - BARZAN ISBL - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2954,70 +2954,70 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>26-06-2024</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>20-05-2024 Enviado Rev. 0</t>
+          <t>24-05-2024 Enviado Rev. 0 // 25-06-2024 Com. Menores Rev. 0 // 26-06-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P-23/097-S00</t>
+          <t>P-23/048-S00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16-11-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22-12-2023</t>
+          <t>07-01-2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>600017293</t>
+          <t>104301071</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CEPSA</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Nivel</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>V-D16861-2206-400-DL-001</t>
+          <t>5022_20-1043010710-00006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23-097-DL-01</t>
+          <t>23-048-LIS-0016</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>LISTA DE DOCUMENTOS</t>
+          <t>NFXP4 - LIST OF RECOMMENDED SPARE PARTS FOR LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Listado</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3032,40 +3032,40 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>12-03-2024</t>
+          <t>16-05-2024</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>12-03-2024 Enviado Rev. 0</t>
+          <t>20-11-2023 Enviado Rev. 0 // 18-01-2024 Com. Mayores Rev. 1 // 26-01-2024 Enviado Rev. 1 // 02-02-2024 Com. Menores Rev. 2 // 27-02-2024 Enviado Rev. 3 // 06-03-2024 Com. Menores Rev. 3 // 06-03-2024 Enviado Rev. 4 // 08-05-2024 Com. Mayores Rev. 4 // 16-05-2024 Enviado Rev. 5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P-23/105-S00</t>
+          <t>P-23/048-S00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11-12-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>07-01-2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1043010640-00</t>
+          <t>104301071</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Nivel</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5022_20-1043010640-00004</t>
+          <t>5022_20-1043010710-00011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23-105-DOS-0003</t>
+          <t>23-048-PLG-0005</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEX QUALITY DOSSIER </t>
+          <t>NFXP4 - OVERALL DRAWING WITH PRINCIPAL DIMENSIONS AND WEIGHTS FOR LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Índice</t>
+          <t>Planos</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3110,40 +3110,44 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>22-04-2024</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>10-06-2024</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Se vuelve a subir As Built</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>27-02-2024 Enviado Rev. 0 // 22-04-2024 Com. Menores Rev. 0 // 22-04-2024 Enviado Rev. 1</t>
+          <t>25-10-2023 Aprobado Rev. 2 // 25-10-2023 Enviado Rev. 3 // 15-12-2023 Aprobado Rev. 3 // 10-06-2024 Enviado Rev. 4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P-23/105-S00</t>
+          <t>P-23/074-S00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11-12-2023</t>
+          <t>06-09-2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>22-11-2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1043010640-00</t>
+          <t>104301091</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3153,27 +3157,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5022_20-1043010640-00006</t>
+          <t>5022_20-1043010910-00003</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23-105-PRC-0012</t>
+          <t>23-074-DOS-0001</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>NFXP4 - PACKING &amp; TRANSPORTATION PROCEDURE FOR TEMPERATURE ELEMENTS WITH WELLS</t>
+          <t>NFXP4 - WELDING DOSSIER FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Soldadura</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3188,40 +3192,44 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>01-07-2024</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>PDF Corrupted, fallo en egesdoc, se vuelve a resubir 02/07/2024</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>14-02-2024 Enviado Rev. 0 // 05-04-2024 Com. Menores Rev. 0 // 07-05-2024 Enviado Rev. 1</t>
+          <t>27-02-2024 Eliminado Rev.  // 09-04-2024 Enviado Rev. 0 // 23-04-2024 Com. Mayores Rev. 0 // 14-05-2024 Enviado Rev. 1 // 23-05-2024 Com. Menores Rev. 1 // 27-06-2024 Enviado Rev. 2 // 01-07-2024 Com. Menores Rev. 2 // 01-07-2024 Enviado Rev. 3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P-23/105-S00</t>
+          <t>P-23/074-S00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11-12-2023</t>
+          <t>06-09-2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>22-11-2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1043010640-00</t>
+          <t>104301091</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3231,32 +3239,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5022_20-1043010640-00010</t>
+          <t>5022_20-1043010910-00001</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23-105-LIS-0017</t>
+          <t>23-074-CER-0004</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
+          <t>NFXP4 - TEST AND CERTIFICATION OF MATERIALS FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3266,79 +3274,75 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>16-04-2024</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Enviado para su cancelación, se encuentra en estado M - VOID en la antigua rev.</t>
-        </is>
-      </c>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>05-03-2024 Enviado Rev. 0 // 12-03-2024 Com. Mayores Rev. 0 // 15-03-2024 Enviado Rev. 1 // 08-04-2024 Com. Mayores Rev. 1 // 16-04-2024 Enviado Rev. 2</t>
+          <t>09-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P-24/018-S00</t>
+          <t>P-23/074-S00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>06-09-2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>22-11-2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3001181438</t>
+          <t>104301091</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TECHNIP</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>V-10530043-62-EP-1554-002-007</t>
+          <t>5022_20-1043010910-00002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>24-018-PPI</t>
+          <t>23-074-CER-0002</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>PLAN DE PUNTOS DE INSPECCIÓN</t>
+          <t>NFXP4 - CERTIFICATES AND DECLARATIONS OF CONFORMITY FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3353,40 +3357,40 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>11-04-2024 Enviado Rev. 0</t>
+          <t>09-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P-24/018-S00</t>
+          <t>P-23/097-S00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>16-11-2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>22-12-2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3001181438</t>
+          <t>600017293</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TECHNIP</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3396,27 +3400,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>V-10530043-62-EP-1554-002-010</t>
+          <t>V-D16861-2206-400-DOS-001</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>24-018-PS</t>
+          <t>23-097-DOS-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>PROCEDIMIENTOS DE SOLDADURA</t>
+          <t>DOSSIER FINAL</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Procedimientos</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3426,45 +3430,45 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>11-04-2024</t>
+          <t>20-05-2024</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>09-04-2024 Enviado Rev. 0 // 10-04-2024 Com. Menores Rev. 0 // 11-04-2024 Enviado Rev. 1</t>
+          <t>20-05-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P-24/026-S00</t>
+          <t>P-23/105-S00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>11-12-2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>03-05-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3001189229</t>
+          <t>1043010640-00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FLUOR</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3474,27 +3478,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>V-RT-10495226-035-K-03-005</t>
+          <t>5022_20-1043010640-00002</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>24-026-CAL-0002</t>
+          <t>23-105-DOS-0002</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>PLANOS DIMENSIONALES</t>
+          <t>FINAL QUALITY DOSSIER</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cálculos</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3504,45 +3508,45 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>21-06-2024</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>25-04-2024 Enviado Rev. 0 // 30-04-2024 Com. Menores Rev. 0 // 06-05-2024 Enviado Rev. 1 // 10-05-2024 Com. Menores Rev. 1 // 10-05-2024 Enviado Rev. 2</t>
+          <t>21-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P-24/026-S00</t>
+          <t>P-23/105-S00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>11-12-2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>03-05-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3001189229</t>
+          <t>1043010640-00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLUOR</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3552,22 +3556,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>V-RT-10495226-035-K-03-012</t>
+          <t>5022_20-1043010640-00010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>24-006-CER-0002</t>
+          <t>23-105-LIS-0017</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>INSTRUCCIONES DE INSTALACIÓN, CALIBRACIÓN, OPERACIÓN Y MANTENIMIENTO</t>
+          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Instrucciones</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3582,45 +3586,49 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>16-04-2024</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Enviado para su cancelación, se encuentra en estado M - VOID en la antigua rev.</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>06-05-2024 Enviado Rev. 0 // 10-05-2024 Com. Menores Rev. 0 // 10-05-2024 Enviado Rev. 1</t>
+          <t>05-03-2024 Enviado Rev. 0 // 12-03-2024 Com. Mayores Rev. 0 // 15-03-2024 Enviado Rev. 1 // 08-04-2024 Com. Mayores Rev. 1 // 16-04-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P-24/026-S00</t>
+          <t>P-23/105-S00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>11-12-2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03-05-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3001189229</t>
+          <t>1043010640-00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLUOR</t>
+          <t>TÉCNICAS REUNIDAS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3630,22 +3638,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>V-RT-10495226-035-K-03-007</t>
+          <t>5022_20-1043010640-00006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>24-026-DOS-0001</t>
+          <t>23-105-PRC-0012</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>PROCEDIMIENTO DE SOLDADURA</t>
+          <t>NFXP4 - PACKING &amp; TRANSPORTATION PROCEDURE FOR TEMPERATURE ELEMENTS WITH WELLS</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Packing</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3660,75 +3668,71 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>26-06-2024</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>06-05-2024 Enviado Rev. 0 // 10-05-2024 Com. Menores Rev. 0 // 10-05-2024 Enviado Rev. 1</t>
+          <t>14-02-2024 Enviado Rev. 0 // 05-04-2024 Com. Menores Rev. 0 // 07-05-2024 Enviado Rev. 1 // 13-06-2024 Com. Menores Rev. 1 // 26-06-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P-24/026-S00</t>
+          <t>P-24/022-S00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>03-05-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3001189229</t>
+          <t>7011273044</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FLUOR</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>V-RT-10495226-035-K-03-006</t>
-        </is>
-      </c>
+          <t>Caudal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>24-026-ITP-0001</t>
+          <t>24-022-DOS-0004</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>PLAN DE PUNTOS DE INSPECCIÓN</t>
+          <t>CERTIFICADOS DE PRUEBAS Y MATERIALES 3.1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3738,66 +3742,70 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>04-06-2024</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>06-05-2024 Enviado Rev. 0 // 10-05-2024 Com. Menores Rev. 0 // 10-05-2024 Enviado Rev. 1</t>
+          <t>04-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P-24/030-S00</t>
+          <t>P-24/022-S00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29-04-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Q3710-E-INT-IN-MPO-2011A / Q3710-U-INT-IN-MPO-2011A </t>
+          <t>7011273044</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>INTECSA INDUSTRIAL</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Caudal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>V-1908510910-0003</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>24-030-DWG-0001</t>
+          <t>24-022-DOS-0001</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>PLANOS DIMENSIONALES</t>
+          <t>WELDING DOSSIER</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Planos</t>
+          <t>Soldadura</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3812,22 +3820,18 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enviar plano sólo para información </t>
-        </is>
-      </c>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>06-05-2024 Enviado Rev. 0</t>
+          <t>28-05-2024 Enviado Rev. 0 // 14-06-2024 Rechazado Rev. 0 // 17-06-2024 Enviado Rev. 1 // 18-06-2024 Com. Menores Rev. 1 // 19-06-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>

--- a/data_import/under_review.xlsx
+++ b/data_import/under_review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,22 +548,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>V-1040010910-0010</t>
+          <t>V-1040010910-00001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22-074-PRC-0016</t>
+          <t>22-074-CAL-0007</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PAINTING PROCEDURE</t>
+          <t>CALCULATION FOR FE &amp; FO (ARZANAH)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Cálculos</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -578,18 +578,23 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>05-07-2024</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Se encuentra en egesdoc NOT ACCEPTABLE/RESUBMIT: Document corrupted, please re-upload accordingly
+; Se resube el archivo 03/04/2024 no se encuentra email de fallo en la carga del archivo ; Rev. C01 NO ACEPTADA, SE CAMBIA A REV. 01 Y SE VUELVE A RESUBIR 04/04/2024; 12/07/2024 LO RECHAZAN PDF CORRUPTED, SE RESUBE</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>29-01-2024 Enviado Rev. 0 // 07-02-2024 Rechazado Rev. 1 // 12-04-2024 Enviado Rev. 1 // 17-04-2024 Com. Mayores Rev. 1 // 05-07-2024 Enviado Rev. 2</t>
+          <t>20-12-2023 Enviado Rev. 0 // 19-01-2024 Com. Mayores Rev. 0 // 31-01-2024 Enviado Rev. 1 // 22-02-2024 Com. Menores Rev. 2 // 01-03-2024 Enviado Rev. 2 // 24-05-2024 Aprobado Rev. 2 // 24-05-2024 Com. Menores Rev. 2 // 24-05-2024 Enviado Rev. 3 // 08-07-2024 Com. Menores Rev. 3 // 08-07-2024 Enviado Rev. 4</t>
         </is>
       </c>
     </row>
@@ -626,22 +631,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>V-1040010910-00001</t>
+          <t>V-1040010910-0010</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22-074-CAL-0007</t>
+          <t>22-074-PRC-0016</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CALCULATION FOR FE &amp; FO (ARZANAH)</t>
+          <t>PAINTING PROCEDURE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cálculos</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -656,45 +661,40 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Se encuentra en egesdoc NOT ACCEPTABLE/RESUBMIT: Document corrupted, please re-upload accordingly
-; Se resube el archivo 03/04/2024 no se encuentra email de fallo en la carga del archivo ; Rev. C01 NO ACEPTADA, SE CAMBIA A REV. 01 Y SE VUELVE A RESUBIR 04/04/2024</t>
-        </is>
-      </c>
+          <t>05-07-2024</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20-12-2023 Enviado Rev. 0 // 19-01-2024 Com. Mayores Rev. 0 // 31-01-2024 Enviado Rev. 1 // 22-02-2024 Com. Menores Rev. 2 // 01-03-2024 Enviado Rev. 2 // 24-05-2024 Aprobado Rev. 2 // 24-05-2024 Com. Menores Rev. 2 // 24-05-2024 Enviado Rev. 3 // 08-07-2024 Com. Menores Rev. 3 // 08-07-2024 Enviado Rev. 4</t>
+          <t>29-01-2024 Enviado Rev. 0 // 07-02-2024 Rechazado Rev. 1 // 12-04-2024 Enviado Rev. 1 // 17-04-2024 Com. Mayores Rev. 1 // 05-07-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P-22/074-S00</t>
+          <t>P-23/001-S00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>06-02-2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10-07-2023</t>
+          <t>04-10-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>104001091</t>
+          <t>104001064</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -704,32 +704,28 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>V-1040010910-0002</t>
-        </is>
-      </c>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22-074-PLG-0005</t>
+          <t>23-001-S00-LIS-0016</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OVERALL DRAWING WITH WEIGHT FOR FE &amp; FO (ARZANAH)</t>
+          <t>SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP 23-001</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Planos</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -739,18 +735,18 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>29-05-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>05-01-2024 Enviado Rev. 0 // 22-02-2024 Com. Mayores Rev. 1 // 22-03-2024 Enviado Rev. 1 // 22-05-2024 Com. Menores Rev. 1 // 29-05-2024 Enviado Rev. 2</t>
+          <t>04-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
@@ -831,22 +827,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P-23/001-S00</t>
+          <t>P-23/027-S00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06-02-2023</t>
+          <t>28-02-2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-10-2023</t>
+          <t>26-10-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>104001064</t>
+          <t>103701064</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -859,25 +855,29 @@
           <t>Temperatura</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3998_18-1037010640-00028</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23-001-S00-LIS-0016</t>
+          <t>23-0027-ESP-0003-60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP 23-001</t>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Catálogo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -887,40 +887,44 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>04-07-2024</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>17-07-2024</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Línea duplicada, El Vendor Doc. es 23-0027-ESP-0003-60, y es la misma Doc. que la del Vendor Doc. 23-027-ESP-0003-60, Se pide que se elimine via EMAIL / ESTE DOC HAY QUE ELIMINARLO INF DUPLICADA - 16-2-24 SE ENVIA DOCUMENTO PARA SU ELIMINACION A EGESDOC - Vuelve a rechazar, se vuelve a enviar para su eliminacion; 24-04-24 Nos indican que aqui van los cálculos que se estaban subiendo al -00022 y en el -00022 es el VDDL del B99</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>04-07-2024 Enviado Rev. 0</t>
+          <t>09-02-2024 Com. Menores Rev. 0 // 16-02-2024 Enviado Rev. 0 // 16-02-2024 Rechazado Rev. 0 // 21-02-2024 Eliminado Rev. 0 // 09-05-2024 Enviado Rev. 0 // 17-07-2024 Com. Menores Rev. 0 // 17-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P-23/026-S00</t>
+          <t>P-23/027-S00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11-04-2023</t>
+          <t>28-02-2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07-12-2023</t>
+          <t>26-10-2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1038010610</t>
+          <t>103701064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -935,22 +939,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>V-1038010610-0016</t>
+          <t>3998_18-1037010640-00012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23-026-CER-0002</t>
+          <t>23-027-PRC-0009</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CERTIFICATES AND DECLARATIONS OF CONFORMITY</t>
+          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - TEMPERATURE ELEMENTS WITH WELL</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Instrucciones</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -965,40 +969,40 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>09-07-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>09-07-2024 Enviado Rev. 1</t>
+          <t>13-07-2023 Comentado Rev. 0 // 21-07-2023 Enviado Rev. 0 // 22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 08-05-2024 Com. Menores Rev. 3 // 08-05-2024 Enviado Rev. 4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P-23/026-S00</t>
+          <t>P-23/027-S00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11-04-2023</t>
+          <t>28-02-2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07-12-2023</t>
+          <t>26-10-2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1038010610</t>
+          <t>103701064</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1013,27 +1017,28 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>V-1038010610-0017</t>
+          <t>3998_18-1037010640-00022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23-026-CER-0006</t>
+          <t>23-027-ESP-0003-60</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CALIBRATION CERTIFICATES FOR SUPPLIED INSTRUMENTS</t>
+          <t xml:space="preserve">NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE
+</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1043,40 +1048,44 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>09-07-2024</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>25-04-2024</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Error en egesdoc con nombre y TR number. Este documento es el VDDL</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>09-07-2024 Enviado Rev. 1</t>
+          <t>16-10-2023 Enviado Rev. 0 // 24-01-2024 Com. Menores Rev. 1 // 25-01-2024 Enviado. Rev. 1 // 25-01-2024 Enviado Rev. 1 // 26-02-2024 Aprobado Rev. 1 // 25-04-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P-23/027-S00</t>
+          <t>P-23/027-S04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28-02-2023</t>
+          <t>21-05-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26-10-2023</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>103701064</t>
+          <t>1037010640-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,18 +1100,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00022</t>
+          <t>3998_18-1037010640-00035</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-60</t>
+          <t>23-027-S04-ESP-0003-B18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE
-</t>
+          <t>NFXP3 – SPECIFICATIONS AND TECHNICAL DATA FOR TEMPERATURE ELEMENTS WITH WELL - B18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1127,24 +1135,20 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>25-04-2024</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Error en egesdoc con nombre y TR number. Este documento es el VDDL</t>
-        </is>
-      </c>
+          <t>01-07-2024</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>16-10-2023 Enviado Rev. 0 // 24-01-2024 Com. Menores Rev. 1 // 25-01-2024 Enviado. Rev. 1 // 25-01-2024 Enviado Rev. 1 // 26-02-2024 Aprobado Rev. 1 // 25-04-2024 Enviado Rev. 0</t>
+          <t>01-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P-23/027-S00</t>
+          <t>P-23/028-S00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1159,7 +1163,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>103701064</t>
+          <t>103701061</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1174,22 +1178,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00012</t>
+          <t>3998_18-1037010610-00005</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23-027-PRC-0009</t>
+          <t>23-028-LIS-0017</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - TEMPERATURE ELEMENTS WITH WELL</t>
+          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Instrucciones</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1204,25 +1208,29 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>09-07-2024</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lo rechazan y confunde título con otro documento ; rechazan el doc. y piden que se suba en nativo; Rechazan de nuevo el doc. nativo, ahora piden que se suba en .zip el pdf y nativo</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>13-07-2023 Comentado Rev. 0 // 21-07-2023 Enviado Rev. 0 // 22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 08-05-2024 Com. Menores Rev. 3 // 08-05-2024 Enviado Rev. 4</t>
+          <t>17-05-2024 Enviado Rev. 0 // 28-06-2024 Rechazado Rev. 0 // 09-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P-23/027-S00</t>
+          <t>P-23/028-S00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1237,7 +1245,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>103701064</t>
+          <t>103701061</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1252,27 +1260,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00028</t>
+          <t>3998_18-1037010610-00002</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23-0027-ESP-0003-60</t>
+          <t>23-028-CER-0006</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LEAN GAS PIPELINE</t>
+          <t>CALIBRATION CERTIFICATES FOR SUPPLIED INSTRUMENTS</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Catálogo</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1287,24 +1295,20 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>09-05-2024</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Línea duplicada, El Vendor Doc. es 23-0027-ESP-0003-60, y es la misma Doc. que la del Vendor Doc. 23-027-ESP-0003-60, Se pide que se elimine via EMAIL / ESTE DOC HAY QUE ELIMINARLO INF DUPLICADA - 16-2-24 SE ENVIA DOCUMENTO PARA SU ELIMINACION A EGESDOC - Vuelve a rechazar, se vuelve a enviar para su eliminacion; 24-04-24 Nos indican que aqui van los cálculos que se estaban subiendo al -00022 y en el -00022 es el VDDL del B99</t>
-        </is>
-      </c>
+          <t>10-06-2024</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>09-02-2024 Com. Menores Rev. 0 // 16-02-2024 Enviado Rev. 0 // 16-02-2024 Rechazado Rev. 0 // 21-02-2024 Eliminado Rev. 0 // 09-05-2024 Enviado Rev. 0</t>
+          <t>10-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P-23/027-S00</t>
+          <t>P-23/028-S00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1319,7 +1323,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>103701064</t>
+          <t>103701061</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1334,27 +1338,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00017</t>
+          <t>3998_18-1037010610-00013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-129C</t>
+          <t>23-028-PRC-0009</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - LPB31</t>
+          <t>NFXP3 - PRESERVATION AND STORAGE INSTRUCTIONS - THERMOMETERS WITH WELL</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Instrucciones</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1369,39 +1373,39 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>15-07-2024</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
+          <t>En eGesdoc el doc. Eipsa es: 23-028-DOS-0001</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>26-06-2023 Comentado Rev. 1 // 06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
+          <t>22-02-2024 Com. Menores Rev. 2 // 26-02-2024 Enviado Rev. 3 // 06-05-2024 Com. Menores Rev. 3 // 06-05-2024 Enviado Rev. 4 // 03-07-2024 Com. Menores Rev. 4 // 15-07-2024 Enviado Rev. 5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P-23/027-S00</t>
+          <t>P-23/028-S01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28-02-2023</t>
+          <t>26-10-2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26-10-2023</t>
+          <t>25-12-2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>103701064</t>
+          <t>1037010640</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1416,17 +1420,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3998_18-1037010640-00016</t>
+          <t>3998_18-1037010610-00017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23-027-ESP-0003-315</t>
+          <t>23-028-S01-ESP-0003</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - CO2 INJECTION</t>
+          <t>CALCULATIONS AND OVERALL DRAWING DIMENSIONALS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1446,526 +1450,526 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>09-05-2024</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>06-02-2024 Com. Menores Rev. 3 // 06-02-2024 Enviado Rev. 3 // 01-04-2024 Com. Menores Rev. 3 // 04-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P-23/027-S03</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18-12-2023</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10-04-2024</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1037010640</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3998_18-1037010640-00030</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>23-027-S03-ESP-0003-175</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWING DIMENSIONS - TEMPERATURE ELEMENTS WITH WELL - MEG-S02</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Cálculo y plano</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>25-04-2024</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>01/02/2024 nos entregan nº doc. cliente y creamos nuevas lineas ; 12/03/24 Nos indican que el plazo previsto de devolución es: 22/03/24</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>09-02-2024 Enviado Rev. 0 // 22-04-2024 Com. Menores Rev. 0 // 25-04-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P-23/027-S04</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>21-05-2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16-09-2024</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1037010640-04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3998_18-1037010640-00035</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>23-027-S04-ESP-0003-B18</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NFXP3 – SPECIFICATIONS AND TECHNICAL DATA FOR TEMPERATURE ELEMENTS WITH WELL - B18</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Cálculo y plano</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>01-07-2024</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>01-07-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P-23/028-S00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>28-02-2023</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>26-10-2023</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>103701061</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>3998_18-1037010610-00002</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>23-028-CER-0006</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CALIBRATION CERTIFICATES FOR SUPPLIED INSTRUMENTS</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>10-06-2024</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>10-06-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P-23/028-S00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>28-02-2023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>26-10-2023</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>103701061</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3998_18-1037010610-00014</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>23-028-PRC-0012</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>PACKING &amp; TRANSPORTATION PROCEDURE</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Packing</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>11-06-2024</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>11-12-2023 Com. Menores Rev. 0 // 15-02-2024 Enviado Rev. 0 // 11-06-2024 Com. Menores Rev. 0 // 11-06-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P-23/028-S00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>28-02-2023</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>26-10-2023</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>103701061</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3998_18-1037010610-00005</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>23-028-LIS-0017</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Repuestos</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>09-07-2024</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Lo rechazan y confunde título con otro documento ; rechazan el doc. y piden que se suba en nativo; Rechazan de nuevo el doc. nativo, ahora piden que se suba en .zip el pdf y nativo</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>17-05-2024 Enviado Rev. 0 // 28-06-2024 Rechazado Rev. 0 // 09-07-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P-23/028-S01</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>26-10-2023</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>25-12-2023</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1037010640</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3998_18-1037010610-00017</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>23-028-S01-ESP-0003</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>CALCULATIONS AND OVERALL DRAWING DIMENSIONALS</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Cálculo y plano</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>09-05-2024</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendiente aun bajo revisón, ya se han enviado 3 emails de reclamación para este documento ; Fue enviado como W - ISSUED FOR CERTIFICATION aún "under review" ; 22-02-24 Se envia otro email de reclamación; En eGesdoc se encuentra S - TO CLIENT WITH COMMENTS - AP; Documento revisado para actualizar el rango de temperatura de los bimetálicos:
 171TG-6662 y 171TG-6671
 </t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>13-12-2023 Enviado Rev. 0 // 22-02-2024 Aprobadoç Rev. 0 // 22-02-2024 Aprobado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 19-03-2024 Enviado Rev. 1 // 06-05-2024 Aprobado Rev. 1 // 09-05-2024 Enviado Rev. 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P-23/036-S00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>28-03-2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23-11-2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RFQ 12-99-52-1807 _REV.A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Caudal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8005710911-V-0002</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>23-036-PLN-0001</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>QUALITY CONTROL PLAN</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PPI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Este pedido esta terminado. Mientras no reclamen no vamos ha enviar nada. Vuelve a enviar transmittal 'Accepted with minor comments'</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>26-07-2023 Aprobado Rev. 2 // 25-06-2024 Enviado Rev. 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P-23/037-S00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-04-2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>06-12-2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>103701071</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nivel</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3998_18-1037010710-00002</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>23-037-CER-0002</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - LEVEL GAUGES</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Certificados</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>20-06-2024</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>20-06-2024 Enviado Rev. 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P-23/037-S00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10-04-2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>06-12-2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>103701071</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nivel</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3998_18-1037010710-00016</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>23-037-PRC-0012</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NFXP3 - PACKING &amp; TRANSPORTATION PROCEDURE - LEVEL GAUGES</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Packing</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10-07-2024</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>20-09-2023 Comentado Rev. 0 // 25-09-2023 Enviado Rev. 1 // 11-12-2023 Rechazado Rev. 1 // 06-02-2024 Enviado Rev. 3 // 19-03-2024 Com. Menores Rev. 3 // 01-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5 // 07-06-2024 Com. Menores Rev. 5 // 07-06-2024 Enviado Rev. 6 // 10-07-2024 Com. Menores Rev. 6 // 10-07-2024 Enviado Rev. 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P-23/044-S00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26-04-2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22-12-2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>103701091</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Caudal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3998_18-1037010910-00002</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>23-044-CER-0002</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Certificados</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>08-07-2024 Enviado Rev. 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P-23/044-S03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12-12-2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1037010910</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Caudal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3998_18-1037010910-00033</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23-044-S03-PLG-0005-171</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - SUPP 02</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Catálogo</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>14-05-2024</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Nos lo entregan vía email 07/03/24 para que adelantemos los comentarios, no es oficial, nos lo tienen que devolver por egesdoc; Problema con archivo en egesdoc, email nos indican que es problema de la web. se resube</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>30-01-2024 Enviado Rev. 0 // 07-03-2024 Com. Menores Rev. 0 // 10-04-2024 Aprobado Rev. 1 // 16-04-2024 Enviado Rev. 2 // 13-05-2024 Rechazado Rev. 2 // 14-05-2024 Enviado Rev. 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P-23/048-S00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12-05-2023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>104301071</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TÉCNICAS REUNIDAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nivel</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5022_20-1043010710-00004</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>23-048-DOS-0002</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NFXP4 - MANUFACTURING RECORDS BOOK FOR LEVEL GAUGES</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Dossier</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10-07-2024</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Vuelve a enviar dev. 20/05/24 sin realizar ningún envío</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>13-12-2023 Enviado Rev. 0 // 22-02-2024 Aprobadoç Rev. 0 // 22-02-2024 Aprobado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 19-03-2024 Enviado Rev. 1 // 06-05-2024 Aprobado Rev. 1 // 09-05-2024 Enviado Rev. 2</t>
+          <t>25-04-2024 Enviado Rev. 0 // 30-04-2024 Com. Menores Rev. 0 // 10-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P-23/036-S00</t>
+          <t>P-23/048-S00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28-03-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23-11-2023</t>
+          <t>07-01-2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RFQ 12-99-52-1807 _REV.A</t>
+          <t>104301071</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1975,32 +1979,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Caudal</t>
+          <t>Nivel</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8005710911-V-0002</t>
+          <t>5022_20-1043010710-00006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23-036-PLN-0001</t>
+          <t>23-048-LIS-0016</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>QUALITY CONTROL PLAN</t>
+          <t>NFXP4 - LIST OF RECOMMENDED SPARE PARTS FOR LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2010,44 +2014,40 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>25-06-2024</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Este pedido esta terminado. Mientras no reclamen no vamos ha enviar nada. Vuelve a enviar transmittal 'Accepted with minor comments'</t>
-        </is>
-      </c>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>26-07-2023 Aprobado Rev. 2 // 25-06-2024 Enviado Rev. 3</t>
+          <t>20-11-2023 Enviado Rev. 0 // 18-01-2024 Com. Mayores Rev. 1 // 26-01-2024 Enviado Rev. 1 // 02-02-2024 Com. Menores Rev. 2 // 27-02-2024 Enviado Rev. 3 // 06-03-2024 Com. Menores Rev. 3 // 06-03-2024 Enviado Rev. 4 // 08-05-2024 Com. Mayores Rev. 4 // 16-05-2024 Enviado Rev. 5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P-23/037-S00</t>
+          <t>P-23/074-S00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>06-09-2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06-12-2023</t>
+          <t>22-11-2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>103701071</t>
+          <t>104301091</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2057,22 +2057,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3998_18-1037010710-00002</t>
+          <t>5022_20-1043010910-00001</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23-037-CER-0002</t>
+          <t>23-074-CER-0004</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - LEVEL GAUGES</t>
+          <t>NFXP4 - TEST AND CERTIFICATION OF MATERIALS FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2097,35 +2097,35 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>20-06-2024 Enviado Rev. 0</t>
+          <t>09-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P-23/037-S00</t>
+          <t>P-23/074-S00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>06-09-2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06-12-2023</t>
+          <t>22-11-2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>103701071</t>
+          <t>104301091</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2135,27 +2135,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3998_18-1037010710-00016</t>
+          <t>5022_20-1043010910-00002</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23-037-PRC-0012</t>
+          <t>23-074-CER-0002</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NFXP3 - PACKING &amp; TRANSPORTATION PROCEDURE - LEVEL GAUGES</t>
+          <t>NFXP4 - CERTIFICATES AND DECLARATIONS OF CONFORMITY FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2170,75 +2170,75 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>20-09-2023 Comentado Rev. 0 // 25-09-2023 Enviado Rev. 1 // 11-12-2023 Rechazado Rev. 1 // 06-02-2024 Enviado Rev. 3 // 19-03-2024 Com. Menores Rev. 3 // 01-04-2024 Enviado Rev. 4 // 08-05-2024 Com. Menores Rev. 4 // 08-05-2024 Enviado Rev. 5 // 07-06-2024 Com. Menores Rev. 5 // 07-06-2024 Enviado Rev. 6</t>
+          <t>09-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P-23/037-S00</t>
+          <t>P-23/087-S01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06-12-2023</t>
+          <t>30-09-2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>103701071</t>
+          <t>7011294464</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nivel</t>
+          <t>Caudal</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3998_18-1037010710-00008</t>
+          <t>V‐1801RA96A3‐2206‐500‐TNFE0500N‐CAL‐001</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23-037-LIS-0022</t>
+          <t>23‐087‐S01-CAL‐01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NFXP3 - CUSTOMS CLASSIFICATION - LEVEL GAUGES</t>
+          <t>HOJA DE CÁLCULO</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Cálculos</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2248,45 +2248,49 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>11-07-2024</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Se envía por email</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>13-02-2024 Enviado Rev. 0 // 19-03-2024 Com. Menores Rev. 0 // 01-04-2024 Enviado Rev. 1 // 06-05-2024 Com. Menores Rev. 1 // 14-05-2024 Enviado Rev. 2</t>
+          <t>09-07-2024 Enviado Rev. 0 // 10-07-2024 Com. Menores Rev. 0 // 11-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P-23/044-S00</t>
+          <t>P-23/087-S01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22-12-2023</t>
+          <t>30-09-2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>103701091</t>
+          <t>7011294464</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2296,22 +2300,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00013</t>
+          <t>V-1801RA96A3-2206-500-TNFE0500N-DWG-001</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23-044-MAN-0001</t>
+          <t>23-087-S01-DWG-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NFXP3 - INSTALLATION, OPERATION AND MAINTENANCE MANUAL - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+          <t>PLANO DIMENSIONAL</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Cálculo y plano</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2326,45 +2330,45 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>12-07-2024</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>13-07-2023 ComentadoEliminado Rev. 0 // 13-07-2023 ComentadoEliminadoeli Rev. 0 // 13-07-2023 Eliminado Rev. 0 // 13-07-2023 Rechazado Rev. 0 // 13-07-2023 Com. Mayores Rev. 0 // 16-05-2024 Enviado Rev. 1 // 20-06-2024 Com. Menores Rev. 1 // 20-06-2024 Enviado Rev. 2</t>
+          <t>12-07-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P-23/044-S00</t>
+          <t>P-23/087-S01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22-12-2023</t>
+          <t>30-09-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>103701091</t>
+          <t>7011294464</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2374,27 +2378,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00002</t>
+          <t>V-1801RA96A3-2206-500-DL-001</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23-044-CER-0002</t>
+          <t>23-087-LIS</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NFXP3 - CERTIFICATES AND DECLARATIONS OF CONFORMITY - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+          <t>LISTA DE DOCUMENTOS</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Listado</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2404,30 +2408,34 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>16-07-2024</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Se reenvia junto al antiguo suplemento (S00+S01)</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>08-07-2024 Enviado Rev. 0</t>
+          <t>11-07-2024 Enviado Rev. 0 // 15-07-2024 Com. Menores Rev. 0 // 16-07-2024 Enviado Rev. 1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P-23/044-S00</t>
+          <t>P-23/097-S00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>16-11-2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2437,42 +2445,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>103701091</t>
+          <t>600017293</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Caudal</t>
+          <t>Temperatura</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00003</t>
+          <t>V-D16861-2206-400-DOS-001</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23-044-DOS-0001</t>
+          <t>23-097-DOS-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NFXP3 - WELDING PROCEDURE - ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+          <t>DOSSIER FINAL</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Soldadura</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2482,40 +2490,40 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>17-06-2024</t>
+          <t>20-05-2024</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>13-11-2023 Enviado Rev. 1 // 18-12-2023 Com. Mayores Rev. 1 // 30-01-2024 Enviado Rev. 2 // 05-03-2024 Com. Menores Rev. 2 // 17-06-2024 Enviado Rev. 3</t>
+          <t>20-05-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P-23/044-S03</t>
+          <t>P-23/105-S00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>11-12-2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1037010910</t>
+          <t>1043010640-00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2525,32 +2533,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Caudal</t>
+          <t>Temperatura</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00033</t>
+          <t>5022_20-1043010640-00010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23-044-S03-PLG-0005-171</t>
+          <t>23-105-LIS-0017</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - SUPP 02</t>
+          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Catálogo</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2560,44 +2568,44 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Nos lo entregan vía email 07/03/24 para que adelantemos los comentarios, no es oficial, nos lo tienen que devolver por egesdoc; Problema con archivo en egesdoc, email nos indican que es problema de la web. se resube</t>
+          <t>Enviado para su cancelación, se encuentra en estado M - VOID en la antigua rev.</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>30-01-2024 Enviado Rev. 0 // 07-03-2024 Com. Menores Rev. 0 // 10-04-2024 Aprobado Rev. 1 // 16-04-2024 Enviado Rev. 2 // 13-05-2024 Rechazado Rev. 2 // 14-05-2024 Enviado Rev. 3</t>
+          <t>05-03-2024 Enviado Rev. 0 // 12-03-2024 Com. Mayores Rev. 0 // 15-03-2024 Enviado Rev. 1 // 08-04-2024 Com. Mayores Rev. 1 // 16-04-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-23/105-S00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>11-12-2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>1043010640-00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2607,32 +2615,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Caudal</t>
+          <t>Temperatura</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00049</t>
+          <t>5022_20-1043010640-00002</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-175</t>
+          <t>23-105-DOS-0002</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO MEG - S04</t>
+          <t>FINAL QUALITY DOSSIER</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2642,45 +2650,45 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>21-06-2024</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
+          <t>21-06-2024 Enviado Rev. 0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-24/022-S00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>7011273044</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2690,22 +2698,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3998_18-1037010910-00050</t>
+          <t>V-1908510910-0003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-171</t>
+          <t>24-022-DOS-0001</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATE - RLTO CLPG - S04</t>
+          <t>WELDING DOSSIER</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Soldadura</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2720,45 +2728,45 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>19-06-2024</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 21-05-2024 Com. Menores Rev. 0 // 22-05-2024 Enviado Rev. 1</t>
+          <t>28-05-2024 Enviado Rev. 0 // 14-06-2024 Rechazado Rev. 0 // 17-06-2024 Enviado Rev. 1 // 18-06-2024 Com. Menores Rev. 1 // 19-06-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P-23/044-S04</t>
+          <t>P-24/022-S00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1037010910-04</t>
+          <t>7011273044</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2766,29 +2774,25 @@
           <t>Caudal</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>3998_18-1037010910-00048</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23-044-S04-PLG-0005-171-2</t>
+          <t>24-022-DOS-0004</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE - RLTO CLPG - S04</t>
+          <t>CERTIFICADOS DE PRUEBAS Y MATERIALES 3.1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cálculo y plano</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2798,1040 +2802,18 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>28-05-2024</t>
+          <t>04-06-2024</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>29-04-2024 Enviado Rev. 0 // 28-05-2024 Com. Menores Rev. 0 // 28-05-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P-23/044-S04</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>22-03-2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>17-07-2024</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1037010910-04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>3998_18-1037010910-00047</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>23-044-S04-PLG-0005-129C-2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>NFXP3 - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE - RLTO LPB 31 - S04</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Cálculo y plano</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>24-05-2024</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>29-04-2024 Enviado Rev. 0 // 23-05-2024 Com. Menores Rev. 0 // 24-05-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P-23/044-S05</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>31-05-2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>22-07-2024</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1037010910-05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>3998_18-1037010910-00051</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>23-044-S05-PLG-0005-B18</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>NFXP3 - BARZAN ISBL - CALCULATIONS AND OVERALL DRAWINGS FOR RESTRICTION ORIFICE</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Cálculo y plano</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>26-06-2024</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>24-05-2024 Enviado Rev. 0 // 25-06-2024 Com. Menores Rev. 0 // 26-06-2024 Enviado Rev. 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P-23/048-S00</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>12-05-2023</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>104301071</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Nivel</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>5022_20-1043010710-00006</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>23-048-LIS-0016</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>NFXP4 - LIST OF RECOMMENDED SPARE PARTS FOR LEVEL GAUGES</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Repuestos</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>16-05-2024</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>20-11-2023 Enviado Rev. 0 // 18-01-2024 Com. Mayores Rev. 1 // 26-01-2024 Enviado Rev. 1 // 02-02-2024 Com. Menores Rev. 2 // 27-02-2024 Enviado Rev. 3 // 06-03-2024 Com. Menores Rev. 3 // 06-03-2024 Enviado Rev. 4 // 08-05-2024 Com. Mayores Rev. 4 // 16-05-2024 Enviado Rev. 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P-23/048-S00</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>12-05-2023</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>104301071</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Nivel</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>5022_20-1043010710-00011</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>23-048-PLG-0005</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>NFXP4 - OVERALL DRAWING WITH PRINCIPAL DIMENSIONS AND WEIGHTS FOR LEVEL GAUGES</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Planos</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>10-06-2024</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Se vuelve a subir As Built</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>25-10-2023 Aprobado Rev. 2 // 25-10-2023 Enviado Rev. 3 // 15-12-2023 Aprobado Rev. 3 // 10-06-2024 Enviado Rev. 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P-23/074-S00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>06-09-2023</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>22-11-2023</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>104301091</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5022_20-1043010910-00003</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>23-074-DOS-0001</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>NFXP4 - WELDING DOSSIER FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Soldadura</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>01-07-2024</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>PDF Corrupted, fallo en egesdoc, se vuelve a resubir 02/07/2024</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>27-02-2024 Eliminado Rev.  // 09-04-2024 Enviado Rev. 0 // 23-04-2024 Com. Mayores Rev. 0 // 14-05-2024 Enviado Rev. 1 // 23-05-2024 Com. Menores Rev. 1 // 27-06-2024 Enviado Rev. 2 // 01-07-2024 Com. Menores Rev. 2 // 01-07-2024 Enviado Rev. 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P-23/074-S00</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>06-09-2023</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>22-11-2023</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>104301091</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5022_20-1043010910-00001</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>23-074-CER-0004</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>NFXP4 - TEST AND CERTIFICATION OF MATERIALS FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>09-07-2024</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>09-07-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P-23/074-S00</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>06-09-2023</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>22-11-2023</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>104301091</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5022_20-1043010910-00002</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>23-074-CER-0002</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>NFXP4 - CERTIFICATES AND DECLARATIONS OF CONFORMITY FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>09-07-2024</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>09-07-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P-23/097-S00</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>16-11-2023</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>22-12-2023</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>600017293</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>CEPSA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>V-D16861-2206-400-DOS-001</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>23-097-DOS-01</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>DOSSIER FINAL</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>20-05-2024</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>20-05-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>P-23/105-S00</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>11-12-2023</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>03-04-2024</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1043010640-00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>5022_20-1043010640-00002</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>23-105-DOS-0002</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>FINAL QUALITY DOSSIER</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Dossier</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>21-06-2024</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>21-06-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>P-23/105-S00</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>11-12-2023</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>03-04-2024</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1043010640-00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>5022_20-1043010640-00010</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>23-105-LIS-0017</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Repuestos</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>16-04-2024</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Enviado para su cancelación, se encuentra en estado M - VOID en la antigua rev.</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>05-03-2024 Enviado Rev. 0 // 12-03-2024 Com. Mayores Rev. 0 // 15-03-2024 Enviado Rev. 1 // 08-04-2024 Com. Mayores Rev. 1 // 16-04-2024 Enviado Rev. 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>P-23/105-S00</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>11-12-2023</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>03-04-2024</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1043010640-00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>TÉCNICAS REUNIDAS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>5022_20-1043010640-00006</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>23-105-PRC-0012</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>NFXP4 - PACKING &amp; TRANSPORTATION PROCEDURE FOR TEMPERATURE ELEMENTS WITH WELLS</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Packing</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>26-06-2024</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>14-02-2024 Enviado Rev. 0 // 05-04-2024 Com. Menores Rev. 0 // 07-05-2024 Enviado Rev. 1 // 13-06-2024 Com. Menores Rev. 1 // 26-06-2024 Enviado Rev. 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P-24/022-S00</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>19-03-2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>16-04-2024</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>7011273044</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CEPSA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>24-022-DOS-0004</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>CERTIFICADOS DE PRUEBAS Y MATERIALES 3.1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>04-06-2024</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
           <t>04-06-2024 Enviado Rev. 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P-24/022-S00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>19-03-2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>16-04-2024</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7011273044</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>CEPSA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Caudal</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>V-1908510910-0003</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>24-022-DOS-0001</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>WELDING DOSSIER</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Soldadura</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>19-06-2024</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>28-05-2024 Enviado Rev. 0 // 14-06-2024 Rechazado Rev. 0 // 17-06-2024 Enviado Rev. 1 // 18-06-2024 Com. Menores Rev. 1 // 19-06-2024 Enviado Rev. 2</t>
         </is>
       </c>
     </row>
